--- a/ListOfDatasetsV2.xlsx
+++ b/ListOfDatasetsV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23e2628aa9477b84/projects/GPDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{700B588E-596D-4852-91EE-8DEB3309CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8D3F8C-AD11-490E-8790-1E2E7911B8D2}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{700B588E-596D-4852-91EE-8DEB3309CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9423C0-3A1B-4A47-BF6A-4EFE758FFE25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1065" windowWidth="22815" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="318">
   <si>
     <t>nenv</t>
   </si>
@@ -984,6 +984,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dryad. https://doi.org/10.5061/dryad.5x69p8d5j </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>in Github</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1094,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,2151 +1363,2158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
         <v>1193</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>23961</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>160</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>44120</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>199</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>216130</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <v>360</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>214051</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>375</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>62049</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <v>1033</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>422405</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>1543</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <v>43043</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>940</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>23857</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>2783</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>96</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>14522</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>622</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>230000</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>87</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>172000</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>4653</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>53347</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>1230</v>
       </c>
-      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>4950</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>119</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>45748</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <v>263</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>9593</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>853</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>23388</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
         <v>232</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>21499</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>284</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <v>300</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
         <v>61179</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>1425</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
         <v>12311</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>1372</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <v>74199</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="12">
+      <c r="D25" s="12">
         <v>13</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="12">
         <v>205</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <v>4438427</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
         <v>671</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
         <v>60728</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>691</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
         <v>64639</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>691</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12">
         <v>9697</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>856</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
         <v>24806</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>475</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
         <v>40334</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>44</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
         <v>10862</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12">
+      <c r="D32" s="12">
         <v>2</v>
       </c>
-      <c r="D32" s="12">
+      <c r="E32" s="12">
         <v>346</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
         <v>42509</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="12">
+      <c r="D33" s="12">
         <v>3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="E33" s="12">
         <v>483</v>
       </c>
-      <c r="E33" s="12">
+      <c r="F33" s="12">
         <v>9</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="12">
         <v>2648</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="12">
+      <c r="D34" s="12">
         <v>4</v>
       </c>
-      <c r="D34" s="12">
+      <c r="E34" s="12">
         <v>5180</v>
       </c>
-      <c r="E34" s="12">
+      <c r="F34" s="12">
         <v>18</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="12">
         <v>4312</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
         <v>481</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
         <v>25496</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
         <v>101</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
         <v>17901</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="12">
+      <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="12">
+      <c r="E37" s="12">
         <v>1385</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
         <v>11296</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>1141</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
         <v>44374</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12">
         <v>1734</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
         <v>7714</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
         <v>309</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
         <v>7864</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12">
         <v>309</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
         <v>7864</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12">
         <v>245</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
         <v>4206</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12">
         <v>30</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
         <v>22648</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12">
         <v>48</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
         <v>14031</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12">
         <v>463</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12">
         <v>886597</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12">
         <v>367</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
         <v>24957</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="12">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12">
         <v>59100</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="H50" s="10" t="s">
+      <c r="G50" s="12"/>
+      <c r="I50" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12">
         <v>888</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12">
         <v>48655</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="12"/>
+      <c r="I52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12">
         <v>323</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12">
         <v>79225</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="12">
+      <c r="D54" s="12">
         <v>14</v>
       </c>
-      <c r="D54" s="12">
+      <c r="E54" s="12">
         <v>568</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12">
         <v>46177</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12">
         <v>546</v>
       </c>
-      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="12">
+      <c r="D56" s="12">
         <v>2</v>
       </c>
-      <c r="D56" s="12">
+      <c r="E56" s="12">
         <v>352</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12">
         <v>44100</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12">
         <v>363</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12">
         <v>73147</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12">
         <v>343</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12">
         <v>8337</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="12">
+      <c r="D59" s="12">
         <v>8</v>
       </c>
-      <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12">
         <v>5963</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12">
         <v>54977</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>114</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12">
         <v>76</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12">
         <v>3777</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12">
         <v>1532</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12">
         <v>530792</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12">
         <v>840</v>
       </c>
-      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="12"/>
+      <c r="H63" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12">
         <v>2000</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12">
         <v>650000</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12">
         <v>31</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12">
         <v>790898</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12">
         <v>481</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12">
         <v>5820</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12">
         <v>1370</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12">
         <v>116765</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>172</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12">
         <v>769</v>
       </c>
-      <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="12"/>
+      <c r="H68" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="12"/>
+      <c r="H69" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12">
         <v>94</v>
       </c>
-      <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="12"/>
+      <c r="H70" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12">
         <v>523</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12">
         <v>58636</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="12"/>
+      <c r="H72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12">
         <v>482</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12">
         <v>30600</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>297</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12">
+      <c r="D74" s="12"/>
+      <c r="E74" s="12">
         <v>245</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12">
         <v>7216</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="12">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12">
         <v>756</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>266</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="J75" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12">
         <v>951</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12">
         <v>86503</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
-      <c r="H77" s="11" t="s">
+      <c r="G77" s="12"/>
+      <c r="I77" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12">
+      <c r="D78" s="12"/>
+      <c r="E78" s="12">
         <v>98</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12">
         <v>2321</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="H78" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="12">
+      <c r="D79" s="12">
         <v>2</v>
       </c>
-      <c r="D79" s="12">
+      <c r="E79" s="12">
         <v>869</v>
       </c>
-      <c r="E79" s="12">
+      <c r="F79" s="12">
         <v>4</v>
       </c>
-      <c r="F79" s="12">
+      <c r="G79" s="12">
         <v>100435</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12">
         <v>320</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12">
         <v>116128</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="H80" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="12">
+      <c r="D81" s="12">
         <v>5</v>
       </c>
-      <c r="D81" s="12">
+      <c r="E81" s="12">
         <v>3534</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12">
         <v>52843</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12">
+      <c r="D82" s="12"/>
+      <c r="E82" s="12">
         <v>44</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12">
+      <c r="F82" s="12"/>
+      <c r="G82" s="12">
         <v>29504</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="H82" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12">
+      <c r="D83" s="12"/>
+      <c r="E83" s="12">
         <v>206</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12">
         <v>5338</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12">
         <v>4000</v>
       </c>
-      <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="12"/>
+      <c r="H84" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12">
+      <c r="D85" s="12"/>
+      <c r="E85" s="12">
         <v>4833</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12">
         <v>20858</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>177</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="12">
+      <c r="D86" s="12">
         <v>1</v>
       </c>
-      <c r="D86" s="12">
+      <c r="E86" s="12">
         <v>599</v>
       </c>
-      <c r="E86" s="12">
+      <c r="F86" s="12">
         <v>4</v>
       </c>
-      <c r="F86" s="12">
+      <c r="G86" s="12">
         <v>1279</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12">
+      <c r="D87" s="12"/>
+      <c r="E87" s="12">
         <v>939</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12">
         <v>53672</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>120</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12">
         <v>462</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12">
         <v>41340</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12">
         <v>2079</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12">
         <v>19583</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12">
         <v>4302</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12">
+      <c r="F90" s="12"/>
+      <c r="G90" s="12">
         <v>20794</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="12"/>
+      <c r="H91" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12">
+      <c r="D92" s="12"/>
+      <c r="E92" s="12">
         <v>2503</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12">
         <v>90000</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="I92" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="12">
+      <c r="F93" s="12"/>
+      <c r="G93" s="12">
         <v>5680</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="12">
+      <c r="D94" s="12">
         <v>8</v>
       </c>
-      <c r="D94" s="12">
+      <c r="E94" s="12">
         <v>1847</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12">
+      <c r="F94" s="12"/>
+      <c r="G94" s="12">
         <v>77496</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>134</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12">
+      <c r="D95" s="12"/>
+      <c r="E95" s="12">
         <v>178</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12">
         <v>3754</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="12"/>
+      <c r="H96" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="12">
+      <c r="D97" s="12">
         <v>2</v>
       </c>
-      <c r="D97" s="12">
+      <c r="E97" s="12">
         <v>273</v>
       </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12">
+      <c r="F97" s="12"/>
+      <c r="G97" s="12">
         <v>50896</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="2"/>
+      <c r="I97" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="12">
+      <c r="D98" s="12">
         <v>9</v>
       </c>
-      <c r="D98" s="12">
+      <c r="E98" s="12">
         <v>260</v>
       </c>
-      <c r="E98" s="12">
+      <c r="F98" s="12">
         <v>37</v>
       </c>
-      <c r="F98" s="12">
+      <c r="G98" s="12">
         <v>41722</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="H98" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="12">
+      <c r="D99" s="12">
         <v>9</v>
       </c>
-      <c r="D99" s="12">
+      <c r="E99" s="12">
         <v>4372</v>
       </c>
-      <c r="E99" s="12">
+      <c r="F99" s="12">
         <v>136</v>
       </c>
-      <c r="F99" s="12">
+      <c r="G99" s="12">
         <v>437214</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12">
+      <c r="D100" s="12"/>
+      <c r="E100" s="12">
         <v>251</v>
       </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12">
         <v>28258</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="12">
+      <c r="D101" s="12">
         <v>3</v>
       </c>
-      <c r="D101" s="12">
+      <c r="E101" s="12">
         <v>5000</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12">
         <v>1328174</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12">
         <v>2238</v>
       </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12">
         <v>6785</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>110</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I102">
-    <sortCondition ref="B2:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J102">
+    <sortCondition ref="C2:C102"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H77" r:id="rId1" xr:uid="{653521A2-A840-4F78-9F45-5C90F504274D}"/>
-    <hyperlink ref="G33" r:id="rId2" xr:uid="{D0E0417C-464A-4FC8-BDFC-081299B9AED7}"/>
-    <hyperlink ref="G79" r:id="rId3" xr:uid="{DCE252C5-8020-4E39-A9D9-7982CB5F23CC}"/>
-    <hyperlink ref="H97" r:id="rId4" location="availability-of-data-and-materials" xr:uid="{480B6F45-7EE6-4557-836A-E5467EB7FA95}"/>
-    <hyperlink ref="H98" r:id="rId5" xr:uid="{411510D6-CBC3-458A-9296-A018C0A563CB}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{5597D9E1-E244-4A0A-98BD-36D40F299376}"/>
-    <hyperlink ref="G92" r:id="rId7" xr:uid="{D8D9ABC8-F4D8-44B1-96AE-7D1DAAE1DBFD}"/>
-    <hyperlink ref="G37" r:id="rId8" xr:uid="{2D6EBF64-FF6B-4526-BD88-46E4AC423599}"/>
-    <hyperlink ref="G81" r:id="rId9" xr:uid="{6619CD9E-4AA5-4072-81A0-05F2A655B79C}"/>
-    <hyperlink ref="G35" r:id="rId10" xr:uid="{91D9B94B-F916-43ED-B9E1-8EDB8DEFF7FB}"/>
-    <hyperlink ref="G34" r:id="rId11" xr:uid="{52012BFB-CA49-496E-8803-8B547F09837E}"/>
-    <hyperlink ref="G59" r:id="rId12" xr:uid="{E4DD012C-DB56-417D-A579-D4AA50C51E30}"/>
-    <hyperlink ref="G100" r:id="rId13" xr:uid="{F1FAFDAB-7D84-410E-B553-8754D65ABADB}"/>
-    <hyperlink ref="G54" r:id="rId14" xr:uid="{B74B92ED-48A8-4B85-81DC-EAA8A2DCA288}"/>
-    <hyperlink ref="G27" r:id="rId15" xr:uid="{40E8B4C0-12D1-45D4-BA0E-65F09F768B1A}"/>
-    <hyperlink ref="G18" r:id="rId16" xr:uid="{9E0BAEA3-D4F3-497F-97D3-8417F1D073E3}"/>
-    <hyperlink ref="G62" r:id="rId17" xr:uid="{77B23E4F-D8C6-4D3F-8A30-A41056FA0117}"/>
-    <hyperlink ref="G101" r:id="rId18" xr:uid="{1A23C130-5049-47F8-88F1-83230D3BA3BA}"/>
-    <hyperlink ref="G68" r:id="rId19" xr:uid="{611FAC95-BD6D-46DC-BD0E-D589ECE8484E}"/>
-    <hyperlink ref="G6" r:id="rId20" xr:uid="{F575FC61-F058-48D0-A745-2CDE34C11EF2}"/>
-    <hyperlink ref="G95" r:id="rId21" xr:uid="{6CCE0E7B-63A5-46B9-B8B1-92705C64F44E}"/>
-    <hyperlink ref="G73" r:id="rId22" xr:uid="{CFC054C5-8730-4D09-8486-CB07B87F5F82}"/>
-    <hyperlink ref="G58" r:id="rId23" xr:uid="{0688965D-B604-46E8-814B-BC309512E908}"/>
-    <hyperlink ref="G9" r:id="rId24" tooltip="Persistent link using digital object identifier" xr:uid="{E7BD74AE-DEA5-4F0B-BD1F-6DF46D7E6ED9}"/>
-    <hyperlink ref="G47" r:id="rId25" xr:uid="{B8FC62B9-FF36-4365-947E-D306BA61A03B}"/>
-    <hyperlink ref="G23" r:id="rId26" xr:uid="{5D5E4CCF-DD6A-4DC5-A8B1-9D6862849644}"/>
-    <hyperlink ref="G5" r:id="rId27" xr:uid="{EEB72900-19F5-407D-B451-C64E264805EF}"/>
-    <hyperlink ref="H47" r:id="rId28" xr:uid="{2231A485-E6A5-4959-BB6F-39E5D1148192}"/>
-    <hyperlink ref="G84" r:id="rId29" xr:uid="{82EC15C9-93BE-4E00-8886-6C345046B42A}"/>
-    <hyperlink ref="G88" r:id="rId30" xr:uid="{8110D83E-5C94-451B-AA5A-8AC6651302E2}"/>
-    <hyperlink ref="G89" r:id="rId31" xr:uid="{F53C4F93-32A1-445A-8609-E6856CD01F6D}"/>
-    <hyperlink ref="H56" r:id="rId32" location="availability-of-data-and-materials" xr:uid="{49BC64CF-9428-4516-B7E1-30756E92EFEB}"/>
-    <hyperlink ref="H71" r:id="rId33" xr:uid="{126C743C-89FB-4A56-8BFF-206F836995DD}"/>
-    <hyperlink ref="G22" r:id="rId34" xr:uid="{B3B790F6-1611-49B8-A018-A33AD20B4025}"/>
-    <hyperlink ref="G72" r:id="rId35" xr:uid="{38004A12-FDDA-4462-96EE-22DEB39087C0}"/>
-    <hyperlink ref="G90" r:id="rId36" xr:uid="{17B9CC15-47BF-4BD4-8864-310CA88729BB}"/>
-    <hyperlink ref="G83" r:id="rId37" xr:uid="{1B9CB54C-4F91-4EFA-8798-76D18EE62EC6}"/>
-    <hyperlink ref="H55" r:id="rId38" xr:uid="{126A36CF-011C-4C21-8FD7-140AC6D395B3}"/>
-    <hyperlink ref="G55" r:id="rId39" xr:uid="{1C7315DF-6EAA-4C1C-AC1D-FB9EA80FAA95}"/>
-    <hyperlink ref="H42" r:id="rId40" xr:uid="{F1543862-026A-4867-B611-8F53F112E79A}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{175C43DC-3392-4D5C-B104-FA5C89DE59A2}"/>
-    <hyperlink ref="G51" r:id="rId42" xr:uid="{4F99B06E-AC25-4400-B571-837CA717BA4D}"/>
-    <hyperlink ref="G10" r:id="rId43" xr:uid="{30D54AE5-24C3-4A70-BED3-EE776F2665A7}"/>
-    <hyperlink ref="G20" r:id="rId44" xr:uid="{0EB8FF0E-6624-405E-9AAC-E7B0C5264F04}"/>
-    <hyperlink ref="G66" r:id="rId45" xr:uid="{B3451B2C-B11D-492C-ABA0-A6406D5C13A5}"/>
-    <hyperlink ref="G91" r:id="rId46" xr:uid="{DD6CDE08-7A74-469A-A369-FD7D34E797CF}"/>
-    <hyperlink ref="G43" r:id="rId47" xr:uid="{708FC622-22CD-451F-861D-0AEFB709004C}"/>
-    <hyperlink ref="G38" r:id="rId48" xr:uid="{333E455C-9B74-4E2C-BB45-FC3C1B833C0B}"/>
-    <hyperlink ref="G15" r:id="rId49" tooltip="https://doi.org/10.1186/s12711-018-0422-x" display="https://doi.org/10.1186/s12711-018-0422-x" xr:uid="{E377B2DF-E927-4CCA-926A-F0CF9B9430FF}"/>
-    <hyperlink ref="G8" r:id="rId50" xr:uid="{52A64202-95A4-4963-AC46-87CEE3D42C06}"/>
-    <hyperlink ref="G63" r:id="rId51" tooltip="Document DOI URL" xr:uid="{E500BA28-FCCB-49B1-84C3-F7084EDBB2BB}"/>
-    <hyperlink ref="G2" r:id="rId52" display="https://doi.org/10.5061/dryad.8gtht76m8" xr:uid="{D6C947FC-3A0B-495E-961F-78F7CC059F9A}"/>
-    <hyperlink ref="G64" r:id="rId53" xr:uid="{B97F057F-FC4F-4C2E-87C9-1AA82DA3E458}"/>
-    <hyperlink ref="G39" r:id="rId54" xr:uid="{7887E15F-6B9A-4B02-B623-E6D40D86FAB2}"/>
-    <hyperlink ref="G93" r:id="rId55" xr:uid="{3283500C-7103-45CA-957A-D8BFDFAD399D}"/>
-    <hyperlink ref="G53" r:id="rId56" xr:uid="{5C30D0F6-D23E-49F6-A172-708CE3FF2BA0}"/>
-    <hyperlink ref="G3" r:id="rId57" xr:uid="{67D82864-E4B9-4A39-814D-5343CF54DF3A}"/>
-    <hyperlink ref="G76" r:id="rId58" xr:uid="{391303A2-2E1A-4175-951F-D4E230863C7E}"/>
-    <hyperlink ref="G45" r:id="rId59" xr:uid="{577C577D-5E84-40B5-97E5-5A52F9F7F9FC}"/>
-    <hyperlink ref="G11" r:id="rId60" xr:uid="{A5189E7A-CDA8-4530-86C0-DA7DBF3E1FF1}"/>
-    <hyperlink ref="I40" r:id="rId61" xr:uid="{C3CA1560-9AAC-4BC4-A6FD-32EC2B73A043}"/>
+    <hyperlink ref="I77" r:id="rId1" xr:uid="{653521A2-A840-4F78-9F45-5C90F504274D}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{D0E0417C-464A-4FC8-BDFC-081299B9AED7}"/>
+    <hyperlink ref="H79" r:id="rId3" xr:uid="{DCE252C5-8020-4E39-A9D9-7982CB5F23CC}"/>
+    <hyperlink ref="I97" r:id="rId4" location="availability-of-data-and-materials" xr:uid="{480B6F45-7EE6-4557-836A-E5467EB7FA95}"/>
+    <hyperlink ref="I98" r:id="rId5" xr:uid="{411510D6-CBC3-458A-9296-A018C0A563CB}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{5597D9E1-E244-4A0A-98BD-36D40F299376}"/>
+    <hyperlink ref="H92" r:id="rId7" xr:uid="{D8D9ABC8-F4D8-44B1-96AE-7D1DAAE1DBFD}"/>
+    <hyperlink ref="H37" r:id="rId8" xr:uid="{2D6EBF64-FF6B-4526-BD88-46E4AC423599}"/>
+    <hyperlink ref="H81" r:id="rId9" xr:uid="{6619CD9E-4AA5-4072-81A0-05F2A655B79C}"/>
+    <hyperlink ref="H35" r:id="rId10" xr:uid="{91D9B94B-F916-43ED-B9E1-8EDB8DEFF7FB}"/>
+    <hyperlink ref="H34" r:id="rId11" xr:uid="{52012BFB-CA49-496E-8803-8B547F09837E}"/>
+    <hyperlink ref="H59" r:id="rId12" xr:uid="{E4DD012C-DB56-417D-A579-D4AA50C51E30}"/>
+    <hyperlink ref="H100" r:id="rId13" xr:uid="{F1FAFDAB-7D84-410E-B553-8754D65ABADB}"/>
+    <hyperlink ref="H54" r:id="rId14" xr:uid="{B74B92ED-48A8-4B85-81DC-EAA8A2DCA288}"/>
+    <hyperlink ref="H27" r:id="rId15" xr:uid="{40E8B4C0-12D1-45D4-BA0E-65F09F768B1A}"/>
+    <hyperlink ref="H18" r:id="rId16" xr:uid="{9E0BAEA3-D4F3-497F-97D3-8417F1D073E3}"/>
+    <hyperlink ref="H62" r:id="rId17" xr:uid="{77B23E4F-D8C6-4D3F-8A30-A41056FA0117}"/>
+    <hyperlink ref="H101" r:id="rId18" xr:uid="{1A23C130-5049-47F8-88F1-83230D3BA3BA}"/>
+    <hyperlink ref="H68" r:id="rId19" xr:uid="{611FAC95-BD6D-46DC-BD0E-D589ECE8484E}"/>
+    <hyperlink ref="H6" r:id="rId20" xr:uid="{F575FC61-F058-48D0-A745-2CDE34C11EF2}"/>
+    <hyperlink ref="H95" r:id="rId21" xr:uid="{6CCE0E7B-63A5-46B9-B8B1-92705C64F44E}"/>
+    <hyperlink ref="H73" r:id="rId22" xr:uid="{CFC054C5-8730-4D09-8486-CB07B87F5F82}"/>
+    <hyperlink ref="H58" r:id="rId23" xr:uid="{0688965D-B604-46E8-814B-BC309512E908}"/>
+    <hyperlink ref="H9" r:id="rId24" tooltip="Persistent link using digital object identifier" xr:uid="{E7BD74AE-DEA5-4F0B-BD1F-6DF46D7E6ED9}"/>
+    <hyperlink ref="H47" r:id="rId25" xr:uid="{B8FC62B9-FF36-4365-947E-D306BA61A03B}"/>
+    <hyperlink ref="H23" r:id="rId26" xr:uid="{5D5E4CCF-DD6A-4DC5-A8B1-9D6862849644}"/>
+    <hyperlink ref="H5" r:id="rId27" xr:uid="{EEB72900-19F5-407D-B451-C64E264805EF}"/>
+    <hyperlink ref="I47" r:id="rId28" xr:uid="{2231A485-E6A5-4959-BB6F-39E5D1148192}"/>
+    <hyperlink ref="H84" r:id="rId29" xr:uid="{82EC15C9-93BE-4E00-8886-6C345046B42A}"/>
+    <hyperlink ref="H88" r:id="rId30" xr:uid="{8110D83E-5C94-451B-AA5A-8AC6651302E2}"/>
+    <hyperlink ref="H89" r:id="rId31" xr:uid="{F53C4F93-32A1-445A-8609-E6856CD01F6D}"/>
+    <hyperlink ref="I56" r:id="rId32" location="availability-of-data-and-materials" xr:uid="{49BC64CF-9428-4516-B7E1-30756E92EFEB}"/>
+    <hyperlink ref="I71" r:id="rId33" xr:uid="{126C743C-89FB-4A56-8BFF-206F836995DD}"/>
+    <hyperlink ref="H22" r:id="rId34" xr:uid="{B3B790F6-1611-49B8-A018-A33AD20B4025}"/>
+    <hyperlink ref="H72" r:id="rId35" xr:uid="{38004A12-FDDA-4462-96EE-22DEB39087C0}"/>
+    <hyperlink ref="H90" r:id="rId36" xr:uid="{17B9CC15-47BF-4BD4-8864-310CA88729BB}"/>
+    <hyperlink ref="H83" r:id="rId37" xr:uid="{1B9CB54C-4F91-4EFA-8798-76D18EE62EC6}"/>
+    <hyperlink ref="I55" r:id="rId38" xr:uid="{126A36CF-011C-4C21-8FD7-140AC6D395B3}"/>
+    <hyperlink ref="H55" r:id="rId39" xr:uid="{1C7315DF-6EAA-4C1C-AC1D-FB9EA80FAA95}"/>
+    <hyperlink ref="I42" r:id="rId40" xr:uid="{F1543862-026A-4867-B611-8F53F112E79A}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{175C43DC-3392-4D5C-B104-FA5C89DE59A2}"/>
+    <hyperlink ref="H51" r:id="rId42" xr:uid="{4F99B06E-AC25-4400-B571-837CA717BA4D}"/>
+    <hyperlink ref="H10" r:id="rId43" xr:uid="{30D54AE5-24C3-4A70-BED3-EE776F2665A7}"/>
+    <hyperlink ref="H20" r:id="rId44" xr:uid="{0EB8FF0E-6624-405E-9AAC-E7B0C5264F04}"/>
+    <hyperlink ref="H66" r:id="rId45" xr:uid="{B3451B2C-B11D-492C-ABA0-A6406D5C13A5}"/>
+    <hyperlink ref="H91" r:id="rId46" xr:uid="{DD6CDE08-7A74-469A-A369-FD7D34E797CF}"/>
+    <hyperlink ref="H43" r:id="rId47" xr:uid="{708FC622-22CD-451F-861D-0AEFB709004C}"/>
+    <hyperlink ref="H38" r:id="rId48" xr:uid="{333E455C-9B74-4E2C-BB45-FC3C1B833C0B}"/>
+    <hyperlink ref="H15" r:id="rId49" tooltip="https://doi.org/10.1186/s12711-018-0422-x" display="https://doi.org/10.1186/s12711-018-0422-x" xr:uid="{E377B2DF-E927-4CCA-926A-F0CF9B9430FF}"/>
+    <hyperlink ref="H8" r:id="rId50" xr:uid="{52A64202-95A4-4963-AC46-87CEE3D42C06}"/>
+    <hyperlink ref="H63" r:id="rId51" tooltip="Document DOI URL" xr:uid="{E500BA28-FCCB-49B1-84C3-F7084EDBB2BB}"/>
+    <hyperlink ref="H2" r:id="rId52" display="https://doi.org/10.5061/dryad.8gtht76m8" xr:uid="{D6C947FC-3A0B-495E-961F-78F7CC059F9A}"/>
+    <hyperlink ref="H64" r:id="rId53" xr:uid="{B97F057F-FC4F-4C2E-87C9-1AA82DA3E458}"/>
+    <hyperlink ref="H39" r:id="rId54" xr:uid="{7887E15F-6B9A-4B02-B623-E6D40D86FAB2}"/>
+    <hyperlink ref="H93" r:id="rId55" xr:uid="{3283500C-7103-45CA-957A-D8BFDFAD399D}"/>
+    <hyperlink ref="H53" r:id="rId56" xr:uid="{5C30D0F6-D23E-49F6-A172-708CE3FF2BA0}"/>
+    <hyperlink ref="H3" r:id="rId57" xr:uid="{67D82864-E4B9-4A39-814D-5343CF54DF3A}"/>
+    <hyperlink ref="H76" r:id="rId58" xr:uid="{391303A2-2E1A-4175-951F-D4E230863C7E}"/>
+    <hyperlink ref="H45" r:id="rId59" xr:uid="{577C577D-5E84-40B5-97E5-5A52F9F7F9FC}"/>
+    <hyperlink ref="H11" r:id="rId60" xr:uid="{A5189E7A-CDA8-4530-86C0-DA7DBF3E1FF1}"/>
+    <hyperlink ref="J40" r:id="rId61" xr:uid="{C3CA1560-9AAC-4BC4-A6FD-32EC2B73A043}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId62"/>

--- a/ListOfDatasetsV2.xlsx
+++ b/ListOfDatasetsV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23e2628aa9477b84/projects/GPDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{700B588E-596D-4852-91EE-8DEB3309CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9423C0-3A1B-4A47-BF6A-4EFE758FFE25}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{700B588E-596D-4852-91EE-8DEB3309CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D174F680-4CE9-4FA7-BC1C-0F37056BCFAF}"/>
   <bookViews>
     <workbookView xWindow="2265" yWindow="1065" windowWidth="22815" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="318">
   <si>
     <t>nenv</t>
   </si>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,6 +1438,9 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>244</v>
